--- a/biology/Botanique/Lonicera_involucrata/Lonicera_involucrata.xlsx
+++ b/biology/Botanique/Lonicera_involucrata/Lonicera_involucrata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lonicera involucrata, le Chèvrefeuille involucré ou Chèvrefeuille à involucres, est une espèce de plantes à fleurs de la famille des Caprifoliaceae et du genre Lonicera, présente en Amérique du Nord.
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’espèce est présente du nord du Mexique jusqu’en Alaska en passant par le Canada et l’ouest des États-Unis. Il peut pousser jusqu’à des altitudes de 2 900 mètres[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’espèce est présente du nord du Mexique jusqu’en Alaska en passant par le Canada et l’ouest des États-Unis. Il peut pousser jusqu’à des altitudes de 2 900 mètres.
 </t>
         </is>
       </c>
@@ -542,15 +556,17 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ce chèvrefeuille atteint une hauteur qui varie entre 50 cm et 5 mètres. Les feuilles sont elliptiques à ovales, longues de 3 à 16 cm pour une largeur de 2 à 8 cm. La face arrière de la feuille est recouverte d’un duvet. Les fleurs sont jaunes, tubulaires et mesurent 1 à 2 cm de long. La plante est monoïque. Les fruits sont des baies noires de 6 à 12 mm de diamètre et contiennent de petites graines. Les baies sont comestibles mais amères[2],[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ce chèvrefeuille atteint une hauteur qui varie entre 50 cm et 5 mètres. Les feuilles sont elliptiques à ovales, longues de 3 à 16 cm pour une largeur de 2 à 8 cm. La face arrière de la feuille est recouverte d’un duvet. Les fleurs sont jaunes, tubulaires et mesurent 1 à 2 cm de long. La plante est monoïque. Les fruits sont des baies noires de 6 à 12 mm de diamètre et contiennent de petites graines. Les baies sont comestibles mais amères.
 			Planche botanique
 			Fleurs
 			Fleurs
 			Involucre et fruit
 			Fruits
-Il en existe deux variétés[5],[3],[6],[7] :
+Il en existe deux variétés :
 Lonicera involucrata var. involucrata (fleurs jaunes);
 Lonicera involucrata var. ledebourii (Eschsch.) Jeps. (fleurs avec de l’orange et du rouge).</t>
         </is>
@@ -580,9 +596,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est couramment utilisée comme plante d’ornement et est par ailleurs résistante à la pollution[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est couramment utilisée comme plante d’ornement et est par ailleurs résistante à la pollution.
 </t>
         </is>
       </c>
@@ -611,11 +629,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite en premier par John Richardson en 1823, qui la classe dans le genre Xylosteon sous le basionyme Xylosteon involucratum. Elle est déplacée dans le genre Lonicera sous le nom correct Lonicera involucrata, par Kurt Sprengel en 1824[9].
-Ce taxon porte en français les noms vernaculaires ou normalisés « Chèvrefeuille involucré » ou « Chèvrefeuille à involucres »[5].
-Lonicera involucrata a pour synonymes[9] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en premier par John Richardson en 1823, qui la classe dans le genre Xylosteon sous le basionyme Xylosteon involucratum. Elle est déplacée dans le genre Lonicera sous le nom correct Lonicera involucrata, par Kurt Sprengel en 1824.
+Ce taxon porte en français les noms vernaculaires ou normalisés « Chèvrefeuille involucré » ou « Chèvrefeuille à involucres ».
+Lonicera involucrata a pour synonymes :
 Caprifolium flavescens (Dippel) Kuntze
 Caprifolium involucratum (Richardson) Kuntze
 Caprifolium ledebourii Greene
